--- a/Notes/MCMC/Examples/Vision Research.xlsx
+++ b/Notes/MCMC/Examples/Vision Research.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr date1904="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26709"/>
+  <workbookPr date1904="1" checkCompatibility="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/opt/SCHAS/git/Notebooks/Notes/MCMC/Examples/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="11745" windowHeight="10575" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="460" windowWidth="22120" windowHeight="15980" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="1" r:id="rId1"/>
@@ -29,7 +34,12 @@
     <definedName name="CBx_StorageType" localSheetId="1" hidden="1">2</definedName>
     <definedName name="CBx_StorageType" localSheetId="2" hidden="1">2</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -346,7 +356,7 @@
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.0\ ;\(&quot;$&quot;#,##0.0\)"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Geneva"/>
@@ -495,11 +505,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,7 +526,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -522,57 +538,19 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -592,9 +570,49 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -693,15 +711,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>165101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:colOff>393700</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>130175</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -710,8 +728,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4619625" y="5038726"/>
-          <a:ext cx="1524000" cy="504824"/>
+          <a:off x="5778500" y="4610101"/>
+          <a:ext cx="1536700" cy="498474"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -872,12 +890,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -907,12 +925,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1116,184 +1134,184 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="B1:C42"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="35"/>
-    <col min="2" max="2" width="113.140625" style="36" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="35"/>
+    <col min="1" max="1" width="8.7109375" style="15"/>
+    <col min="2" max="2" width="113.140625" style="16" customWidth="1"/>
+    <col min="3" max="16384" width="8.7109375" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="22.5">
-      <c r="B1" s="21" t="s">
+    <row r="1" spans="2:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="B1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="40"/>
-    </row>
-    <row r="2" spans="2:3" ht="14.25" customHeight="1">
-      <c r="B2" s="39"/>
-      <c r="C2" s="40"/>
-    </row>
-    <row r="3" spans="2:3">
-      <c r="B3" s="34" t="s">
+      <c r="C1" s="20"/>
+    </row>
+    <row r="2" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
-      <c r="B4" s="36" t="s">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="16" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
-      <c r="B6" s="34" t="s">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="88.5" customHeight="1">
-      <c r="B7" s="37" t="s">
+    <row r="7" spans="2:3" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="37"/>
-    </row>
-    <row r="9" spans="2:3" ht="30">
-      <c r="B9" s="34" t="s">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="17"/>
+    </row>
+    <row r="9" spans="2:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="B9" s="14" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
-      <c r="B10" s="34"/>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11" s="34" t="s">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="14"/>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="14" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
-      <c r="B12" s="34"/>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="B13" s="34" t="s">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="14"/>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="60">
-      <c r="B14" s="37" t="s">
+    <row r="14" spans="2:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="B14" s="17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="30">
-      <c r="B15" s="36" t="s">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="34" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="14" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="34"/>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="34" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="14"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="34"/>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="34" t="s">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="14"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="14" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="34"/>
-    </row>
-    <row r="23" spans="2:2" ht="45">
-      <c r="B23" s="38" t="s">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="14"/>
+    </row>
+    <row r="23" spans="2:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="B23" s="18" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="38"/>
-    </row>
-    <row r="25" spans="2:2" ht="30">
-      <c r="B25" s="34" t="s">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" s="18"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" s="14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="34"/>
-    </row>
-    <row r="27" spans="2:2" ht="30">
-      <c r="B27" s="36" t="s">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26" s="14"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B27" s="16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="34" t="s">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29" s="14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="2:2" ht="45">
-      <c r="B30" s="37" t="s">
+    <row r="30" spans="2:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="B30" s="17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="37"/>
-    </row>
-    <row r="32" spans="2:2" ht="45">
-      <c r="B32" s="37" t="s">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B31" s="17"/>
+    </row>
+    <row r="32" spans="2:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="B32" s="17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="37"/>
-    </row>
-    <row r="34" spans="2:2" ht="90">
-      <c r="B34" s="37" t="s">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="17"/>
+    </row>
+    <row r="34" spans="2:2" ht="60" x14ac:dyDescent="0.2">
+      <c r="B34" s="17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="37"/>
-    </row>
-    <row r="36" spans="2:2" ht="45">
-      <c r="B36" s="37" t="s">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" s="17"/>
+    </row>
+    <row r="36" spans="2:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="B36" s="17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="37"/>
-    </row>
-    <row r="38" spans="2:2" ht="60">
-      <c r="B38" s="37" t="s">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37" s="17"/>
+    </row>
+    <row r="38" spans="2:2" ht="45" x14ac:dyDescent="0.2">
+      <c r="B38" s="17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="37"/>
-    </row>
-    <row r="40" spans="2:2" ht="45">
-      <c r="B40" s="37" t="s">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B39" s="17"/>
+    </row>
+    <row r="40" spans="2:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="B40" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="37"/>
-    </row>
-    <row r="42" spans="2:2" ht="75">
-      <c r="B42" s="34" t="s">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B41" s="17"/>
+    </row>
+    <row r="42" spans="2:2" ht="75" x14ac:dyDescent="0.2">
+      <c r="B42" s="14" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1311,17 +1329,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -1332,35 +1350,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="23" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
         <v>45</v>
       </c>
       <c r="B7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="e">
         <f>CB_DATA_!#REF!</f>
         <v>#REF!</v>
@@ -1370,12 +1388,12 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -1383,17 +1401,17 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>28</v>
       </c>
@@ -1401,20 +1419,20 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="23" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="24" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -1422,26 +1440,26 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="24" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="B29" s="24" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B29" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="B31" s="24" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B31" s="11" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1454,229 +1472,339 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.95" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.85546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="41.5703125" style="3" customWidth="1"/>
     <col min="3" max="3" width="9" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="9.7109375" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="10.7109375" style="3"/>
+    <col min="4" max="4" width="10.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="6" style="3" customWidth="1"/>
+    <col min="7" max="7" width="3.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="3.140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A1" s="20"/>
-      <c r="B1" s="21" t="s">
+    <row r="1" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8"/>
+      <c r="B1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="27.75" customHeight="1">
-      <c r="B2" s="32" t="s">
+    <row r="2" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:6" ht="20.25" customHeight="1">
+    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="31"/>
-    </row>
-    <row r="4" spans="1:6" ht="13.5" customHeight="1">
-      <c r="B4" s="6" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+    </row>
+    <row r="4" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="25">
         <v>10</v>
       </c>
-      <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" ht="13.5" customHeight="1">
-      <c r="B5" s="6" t="s">
+      <c r="D4" s="26"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+    </row>
+    <row r="5" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="25">
         <v>4</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="27" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="13.5" customHeight="1">
-      <c r="B6" s="6" t="s">
+      <c r="E5" s="24">
         <v>3</v>
       </c>
-      <c r="C6" s="9">
+      <c r="F5" s="24">
+        <v>5</v>
+      </c>
+      <c r="G5" s="24"/>
+    </row>
+    <row r="6" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="28">
         <v>16</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="27" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="13.5" customHeight="1">
-      <c r="B7" s="6" t="s">
+      <c r="E6" s="24">
+        <v>12</v>
+      </c>
+      <c r="F6" s="24">
+        <v>16</v>
+      </c>
+      <c r="G6" s="24">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="25">
         <f>SUM(C4:C6)</f>
         <v>30</v>
       </c>
-      <c r="D7" s="25"/>
-    </row>
-    <row r="8" spans="1:6" ht="22.5" customHeight="1">
-      <c r="B8" s="33" t="s">
+      <c r="D7" s="29"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+    </row>
+    <row r="8" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="25"/>
-    </row>
-    <row r="9" spans="1:6" ht="20.25" customHeight="1">
+      <c r="C8" s="31"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+    </row>
+    <row r="9" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="25"/>
-    </row>
-    <row r="10" spans="1:6" ht="13.5" customHeight="1">
-      <c r="B10" s="6" t="s">
+      <c r="C9" s="33"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+    </row>
+    <row r="10" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="34">
         <v>100</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="27" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="13.5" customHeight="1">
-      <c r="B11" s="6" t="s">
+      <c r="E10" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="F10" s="24">
+        <v>100</v>
+      </c>
+      <c r="G10" s="24"/>
+    </row>
+    <row r="11" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="12" t="b">
+      <c r="C11" s="35" t="b">
         <f>C10&gt;=20</f>
         <v>1</v>
       </c>
-      <c r="D11" s="25"/>
-    </row>
-    <row r="12" spans="1:6" ht="29.25" customHeight="1">
-      <c r="B12" s="33" t="s">
+      <c r="D11" s="29"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+    </row>
+    <row r="12" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="25"/>
-    </row>
-    <row r="13" spans="1:6" ht="20.25" customHeight="1">
+      <c r="C12" s="31"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+    </row>
+    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="25"/>
-    </row>
-    <row r="14" spans="1:6" ht="13.5" customHeight="1">
-      <c r="B14" s="6" t="s">
+      <c r="C13" s="33"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+    </row>
+    <row r="14" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="36">
         <v>40</v>
       </c>
-      <c r="D14" s="25"/>
-    </row>
-    <row r="15" spans="1:6" ht="13.5" customHeight="1">
-      <c r="B15" s="6" t="s">
+      <c r="D14" s="29"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+    </row>
+    <row r="15" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="37">
         <v>0.02</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="27" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="13.5" customHeight="1">
-      <c r="B16" s="6" t="s">
+      <c r="E15" s="24">
+        <v>0</v>
+      </c>
+      <c r="F15" s="24">
+        <v>5</v>
+      </c>
+      <c r="G15" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="H15" s="24">
+        <v>-15</v>
+      </c>
+      <c r="I15" s="24">
+        <v>5</v>
+      </c>
+      <c r="J15" s="24">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="36">
         <f>C14*(1+C15)</f>
         <v>40.799999999999997</v>
       </c>
-      <c r="D16" s="25"/>
-    </row>
-    <row r="17" spans="1:4" ht="24.75" customHeight="1">
-      <c r="B17" s="6"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="25"/>
-    </row>
-    <row r="18" spans="1:4" ht="20.25" customHeight="1">
+      <c r="D16" s="29"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+    </row>
+    <row r="17" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="24"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="25"/>
-    </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1">
-      <c r="B19" s="6" t="s">
+      <c r="C18" s="33"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+    </row>
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="38">
         <v>0.08</v>
       </c>
-      <c r="D19" s="41" t="s">
+      <c r="D19" s="27" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="14.25" customHeight="1">
-      <c r="B20" s="6" t="s">
+      <c r="E19" s="37">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F19" s="43">
+        <v>0.02</v>
+      </c>
+      <c r="G19" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="39">
         <v>12</v>
       </c>
-      <c r="D20" s="25"/>
-    </row>
-    <row r="21" spans="1:4" ht="14.25" customHeight="1">
-      <c r="B21" s="22" t="s">
+      <c r="D20" s="29"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+    </row>
+    <row r="21" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="25">
         <f>C16*C19*C20</f>
         <v>39.167999999999999</v>
       </c>
-      <c r="D21" s="25"/>
-    </row>
-    <row r="22" spans="1:4" ht="14.25" customHeight="1">
-      <c r="B22" s="6"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="18"/>
-    </row>
-    <row r="23" spans="1:4" ht="14.25" customHeight="1">
-      <c r="B23" s="19" t="s">
+      <c r="D21" s="29"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+    </row>
+    <row r="22" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="24"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+    </row>
+    <row r="23" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="25">
         <f>IF(C11,C21-C7,-C4-C5)</f>
         <v>9.1679999999999993</v>
       </c>
-      <c r="D23" s="18"/>
-    </row>
-    <row r="24" spans="1:4" ht="12.95" customHeight="1">
-      <c r="B24" s="6"/>
-      <c r="C24" s="10"/>
-    </row>
-    <row r="25" spans="1:4" ht="12.95" customHeight="1">
+      <c r="D23" s="41"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+    </row>
+    <row r="24" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="24"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+    </row>
+    <row r="25" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="6"/>
-      <c r="C25" s="10"/>
+      <c r="C25" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
